--- a/analysis/pre_gemini_data/participant270/easy.xlsx
+++ b/analysis/pre_gemini_data/participant270/easy.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,67 +422,63 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>declaration</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>exception</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>index</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>loop body</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>sum</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
@@ -526,13 +510,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
         <v>23</v>
@@ -541,11 +525,11 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
@@ -561,13 +545,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
         <v>177</v>
@@ -576,11 +560,11 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>334</v>
+        <v>201</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
@@ -596,13 +580,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21436.55</v>
+        <v>17932.72</v>
       </c>
       <c r="C5" t="n">
-        <v>383.65</v>
+        <v>183.48</v>
       </c>
       <c r="D5" t="n">
-        <v>10577.57</v>
+        <v>10160.3</v>
       </c>
       <c r="E5" t="n">
         <v>41725.81</v>
@@ -611,11 +595,11 @@
         <v>166.79</v>
       </c>
       <c r="G5" t="n">
-        <v>18152.06</v>
+        <v>14931.83</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>123347.58</v>
+        <v>81543.5</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
@@ -631,30 +615,30 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.97</v>
+        <v>11.32</v>
       </c>
       <c r="C6" t="n">
         <v>0.12</v>
       </c>
       <c r="D6" t="n">
-        <v>3.44</v>
+        <v>6.42</v>
       </c>
       <c r="E6" t="n">
         <v>28</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="G6" t="n">
-        <v>5.91</v>
+        <v>9.43</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>40.13</v>
+        <v>51.49</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -666,13 +650,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>329.79</v>
+        <v>326.05</v>
       </c>
       <c r="C7" t="n">
-        <v>191.83</v>
+        <v>183.48</v>
       </c>
       <c r="D7" t="n">
-        <v>406.83</v>
+        <v>406.41</v>
       </c>
       <c r="E7" t="n">
         <v>235.74</v>
@@ -681,11 +665,11 @@
         <v>166.79</v>
       </c>
       <c r="G7" t="n">
-        <v>349.08</v>
+        <v>339.36</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>369.3</v>
+        <v>405.69</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
@@ -761,18 +745,271 @@
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>declaration</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>exception</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>gemini</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>loop body</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>var</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>var2</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>var3</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>var4</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fixation based metrics</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Revisit count</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>23</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>7</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>27</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fixation count</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>177</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>8</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>133</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Dwell time (ms)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3503.83</v>
+      </c>
+      <c r="C15" t="n">
+        <v>200.17</v>
+      </c>
+      <c r="D15" t="n">
+        <v>417.27</v>
+      </c>
+      <c r="E15" t="n">
+        <v>41725.81</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>3220.22</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>41804.07</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Dwell time (%)</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E16" t="n">
+        <v>28</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Fixation duration (ms)</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>350.38</v>
+      </c>
+      <c r="C17" t="n">
+        <v>200.17</v>
+      </c>
+      <c r="D17" t="n">
+        <v>417.27</v>
+      </c>
+      <c r="E17" t="n">
+        <v>235.74</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>402.53</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>314.32</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>First fixation duration (ms)</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>417.27</v>
+      </c>
+      <c r="C18" t="n">
+        <v>200.17</v>
+      </c>
+      <c r="D18" t="n">
+        <v>417.27</v>
+      </c>
+      <c r="E18" t="n">
+        <v>333.44</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>417.27</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>199.94</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
